--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="H2">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="I2">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="J2">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.6626783651391</v>
+        <v>94.95332266666666</v>
       </c>
       <c r="N2">
-        <v>15.6626783651391</v>
+        <v>284.859968</v>
       </c>
       <c r="O2">
-        <v>0.2725826634832419</v>
+        <v>0.6912729447872573</v>
       </c>
       <c r="P2">
-        <v>0.2725826634832419</v>
+        <v>0.6912729447872574</v>
       </c>
       <c r="Q2">
-        <v>838.973547464404</v>
+        <v>5645.162786903353</v>
       </c>
       <c r="R2">
-        <v>838.973547464404</v>
+        <v>50806.46508213017</v>
       </c>
       <c r="S2">
-        <v>0.0773326715257379</v>
+        <v>0.2103007509901784</v>
       </c>
       <c r="T2">
-        <v>0.0773326715257379</v>
+        <v>0.2103007509901785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="H3">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="I3">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="J3">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.1194810124061</v>
+        <v>36.59611566666667</v>
       </c>
       <c r="N3">
-        <v>36.1194810124061</v>
+        <v>109.788347</v>
       </c>
       <c r="O3">
-        <v>0.6285990242835838</v>
+        <v>0.2664246382770613</v>
       </c>
       <c r="P3">
-        <v>0.6285990242835838</v>
+        <v>0.2664246382770613</v>
       </c>
       <c r="Q3">
-        <v>1934.745029623955</v>
+        <v>2175.711439102712</v>
       </c>
       <c r="R3">
-        <v>1934.745029623955</v>
+        <v>19581.4029519244</v>
       </c>
       <c r="S3">
-        <v>0.1783357798516423</v>
+        <v>0.08105235700956866</v>
       </c>
       <c r="T3">
-        <v>0.1783357798516423</v>
+        <v>0.08105235700956867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="H4">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="I4">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="J4">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.67812868696711</v>
+        <v>5.810664333333333</v>
       </c>
       <c r="N4">
-        <v>5.67812868696711</v>
+        <v>17.431993</v>
       </c>
       <c r="O4">
-        <v>0.09881831223317419</v>
+        <v>0.04230241693568138</v>
       </c>
       <c r="P4">
-        <v>0.09881831223317419</v>
+        <v>0.04230241693568138</v>
       </c>
       <c r="Q4">
-        <v>304.149753727123</v>
+        <v>345.4554842369417</v>
       </c>
       <c r="R4">
-        <v>304.149753727123</v>
+        <v>3109.099358132476</v>
       </c>
       <c r="S4">
-        <v>0.0280351067929369</v>
+        <v>0.01286934505011084</v>
       </c>
       <c r="T4">
-        <v>0.0280351067929369</v>
+        <v>0.01286934505011085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="H5">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="I5">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="J5">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6626783651391</v>
+        <v>94.95332266666666</v>
       </c>
       <c r="N5">
-        <v>15.6626783651391</v>
+        <v>284.859968</v>
       </c>
       <c r="O5">
-        <v>0.2725826634832419</v>
+        <v>0.6912729447872573</v>
       </c>
       <c r="P5">
-        <v>0.2725826634832419</v>
+        <v>0.6912729447872574</v>
       </c>
       <c r="Q5">
-        <v>1674.447413466614</v>
+        <v>10176.81343453631</v>
       </c>
       <c r="R5">
-        <v>1674.447413466614</v>
+        <v>91591.32091082681</v>
       </c>
       <c r="S5">
-        <v>0.1543427587247369</v>
+        <v>0.3791195380468245</v>
       </c>
       <c r="T5">
-        <v>0.1543427587247369</v>
+        <v>0.3791195380468245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="H6">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="I6">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="J6">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.1194810124061</v>
+        <v>36.59611566666667</v>
       </c>
       <c r="N6">
-        <v>36.1194810124061</v>
+        <v>109.788347</v>
       </c>
       <c r="O6">
-        <v>0.6285990242835838</v>
+        <v>0.2664246382770613</v>
       </c>
       <c r="P6">
-        <v>0.6285990242835838</v>
+        <v>0.2664246382770613</v>
       </c>
       <c r="Q6">
-        <v>3861.419493334705</v>
+        <v>3922.262340158426</v>
       </c>
       <c r="R6">
-        <v>3861.419493334705</v>
+        <v>35300.36106142584</v>
       </c>
       <c r="S6">
-        <v>0.3559276525506946</v>
+        <v>0.1461170823327639</v>
       </c>
       <c r="T6">
-        <v>0.3559276525506946</v>
+        <v>0.1461170823327639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="H7">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="I7">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="J7">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.67812868696711</v>
+        <v>5.810664333333333</v>
       </c>
       <c r="N7">
-        <v>5.67812868696711</v>
+        <v>17.431993</v>
       </c>
       <c r="O7">
-        <v>0.09881831223317419</v>
+        <v>0.04230241693568138</v>
       </c>
       <c r="P7">
-        <v>0.09881831223317419</v>
+        <v>0.04230241693568138</v>
       </c>
       <c r="Q7">
-        <v>607.0307818095977</v>
+        <v>622.7696429185266</v>
       </c>
       <c r="R7">
-        <v>607.0307818095977</v>
+        <v>5604.92678626674</v>
       </c>
       <c r="S7">
-        <v>0.05595326836891149</v>
+        <v>0.02320020317279358</v>
       </c>
       <c r="T7">
-        <v>0.05595326836891149</v>
+        <v>0.02320020317279358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.3347465012126</v>
+        <v>28.793724</v>
       </c>
       <c r="H8">
-        <v>28.3347465012126</v>
+        <v>86.38117199999999</v>
       </c>
       <c r="I8">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="J8">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.6626783651391</v>
+        <v>94.95332266666666</v>
       </c>
       <c r="N8">
-        <v>15.6626783651391</v>
+        <v>284.859968</v>
       </c>
       <c r="O8">
-        <v>0.2725826634832419</v>
+        <v>0.6912729447872573</v>
       </c>
       <c r="P8">
-        <v>0.2725826634832419</v>
+        <v>0.6912729447872574</v>
       </c>
       <c r="Q8">
-        <v>443.7980210062434</v>
+        <v>2734.059765746944</v>
       </c>
       <c r="R8">
-        <v>443.7980210062434</v>
+        <v>24606.53789172249</v>
       </c>
       <c r="S8">
-        <v>0.04090723323276708</v>
+        <v>0.1018526557502544</v>
       </c>
       <c r="T8">
-        <v>0.04090723323276708</v>
+        <v>0.1018526557502544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.3347465012126</v>
+        <v>28.793724</v>
       </c>
       <c r="H9">
-        <v>28.3347465012126</v>
+        <v>86.38117199999999</v>
       </c>
       <c r="I9">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="J9">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>36.1194810124061</v>
+        <v>36.59611566666667</v>
       </c>
       <c r="N9">
-        <v>36.1194810124061</v>
+        <v>109.788347</v>
       </c>
       <c r="O9">
-        <v>0.6285990242835838</v>
+        <v>0.2664246382770613</v>
       </c>
       <c r="P9">
-        <v>0.6285990242835838</v>
+        <v>0.2664246382770613</v>
       </c>
       <c r="Q9">
-        <v>1023.436338241889</v>
+        <v>1053.738453978076</v>
       </c>
       <c r="R9">
-        <v>1023.436338241889</v>
+        <v>9483.646085802684</v>
       </c>
       <c r="S9">
-        <v>0.09433559188124693</v>
+        <v>0.03925519893472876</v>
       </c>
       <c r="T9">
-        <v>0.09433559188124693</v>
+        <v>0.03925519893472876</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.3347465012126</v>
+        <v>28.793724</v>
       </c>
       <c r="H10">
-        <v>28.3347465012126</v>
+        <v>86.38117199999999</v>
       </c>
       <c r="I10">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="J10">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.67812868696711</v>
+        <v>5.810664333333333</v>
       </c>
       <c r="N10">
-        <v>5.67812868696711</v>
+        <v>17.431993</v>
       </c>
       <c r="O10">
-        <v>0.09881831223317419</v>
+        <v>0.04230241693568138</v>
       </c>
       <c r="P10">
-        <v>0.09881831223317419</v>
+        <v>0.04230241693568138</v>
       </c>
       <c r="Q10">
-        <v>160.8883369464762</v>
+        <v>167.3106650706439</v>
       </c>
       <c r="R10">
-        <v>160.8883369464762</v>
+        <v>1505.795985635796</v>
       </c>
       <c r="S10">
-        <v>0.01482993707132581</v>
+        <v>0.006232868712776951</v>
       </c>
       <c r="T10">
-        <v>0.01482993707132581</v>
+        <v>0.006232868712776951</v>
       </c>
     </row>
   </sheetData>
